--- a/pandas/data/conduit_edited.xlsx
+++ b/pandas/data/conduit_edited.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +473,20 @@
         <v>56.19999999999999</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>525</v>
+      </c>
+      <c r="B7">
+        <v>459.4</v>
+      </c>
+      <c r="C7">
+        <v>525</v>
+      </c>
+      <c r="D7">
+        <v>65.60000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
